--- a/botCode/workWithExcelFile/excelDatabase/GUESTS/ГОСТЬ.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/GUESTS/ГОСТЬ.xlsx
@@ -1,45 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
-  <workbookPr codeName="ЭтаКнига"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_5ABBEFFFA7B4C91636F5F466CBE0E210D0E2A3A9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2309DE91-B595-4F0E-AC48-0E05D4F3D033}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="ГОСТЬ" sheetId="1" r:id="rId1"/>
+    <sheet name="М-10-2, А-10-2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
   <si>
-    <t>ГОСТЕВОЕ РАСПИСАНИЕ ДЛЯ ТЕСТИРОВАНИЯ</t>
+    <t>Понедельник</t>
   </si>
   <si>
-    <t>Понедельник</t>
+    <t>Бадляев Никита Васильевич</t>
+  </si>
+  <si>
+    <t>Штойк 10.4</t>
   </si>
   <si>
     <t>Предмет</t>
@@ -51,25 +44,34 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
+    <t>Булгаков Иван Сергеевич</t>
   </si>
   <si>
-    <t>русский</t>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Воробьев Алексей Денисович</t>
+  </si>
+  <si>
+    <t>Английский</t>
   </si>
   <si>
     <t>А-10-2</t>
   </si>
   <si>
-    <t>Перхулова</t>
+    <t>Zoom</t>
   </si>
   <si>
-    <t>Английский</t>
+    <t>Мачнев Егор Витальевич</t>
   </si>
   <si>
-    <t>см.таблицу после субботы</t>
-  </si>
-  <si>
-    <t>Геометрия</t>
+    <t>Напольских 10.5</t>
   </si>
   <si>
     <t>И-10-2</t>
@@ -78,16 +80,40 @@
     <t>Козодой</t>
   </si>
   <si>
+    <t>Назаров Владимир Игоревич</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Платонов Илья Александрович</t>
+  </si>
+  <si>
+    <t>Будникова 10.3</t>
+  </si>
+  <si>
     <t>физика</t>
   </si>
   <si>
     <t>Щербина</t>
   </si>
   <si>
-    <t>ОБЖ</t>
+    <t>Погорелый Константин Олегович</t>
   </si>
   <si>
-    <t>Кручинина</t>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Романов Григорий Романович</t>
+  </si>
+  <si>
+    <t>Тихонова Елизавета Кирилловна</t>
+  </si>
+  <si>
+    <t>Шимохин Алексей Иванович</t>
+  </si>
+  <si>
+    <t>Ямпольский Константин Дмитриевич</t>
   </si>
   <si>
     <t>Среда</t>
@@ -99,28 +125,28 @@
     <t>Афонин/Якименко</t>
   </si>
   <si>
-    <t>502/402</t>
+    <t>русский</t>
   </si>
   <si>
-    <t>ОКНО</t>
+    <t>Перхулова</t>
+  </si>
+  <si>
+    <t>Четверг</t>
   </si>
   <si>
     <t>алгебра</t>
   </si>
   <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>502/401</t>
-  </si>
-  <si>
-    <t>Щербина/Булатова</t>
-  </si>
-  <si>
-    <t>204/205</t>
+    <t>Спецмат</t>
   </si>
   <si>
     <t>Пятница</t>
+  </si>
+  <si>
+    <t>МХК</t>
+  </si>
+  <si>
+    <t>Хамидова</t>
   </si>
   <si>
     <t>Лит-ра</t>
@@ -141,18 +167,6 @@
     <t>Смолянова</t>
   </si>
   <si>
-    <t>МХК</t>
-  </si>
-  <si>
-    <t>Хамидова</t>
-  </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
     <t>Суббота</t>
   </si>
   <si>
@@ -170,17 +184,15 @@
   <si>
     <t>Казаков</t>
   </si>
+  <si>
+    <t>ОБЖ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,22 +202,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,12 +262,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,10 +338,38 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -307,50 +407,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -630,36 +748,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Лист5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="2" customWidth="1"/>
-    <col min="8" max="26" width="7.625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="2"/>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="3" customWidth="1"/>
+    <col min="9" max="26" width="7.625" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -681,17 +798,21 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -711,23 +832,25 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -747,25 +870,27 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
-        <v>204</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -785,23 +910,27 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -821,25 +950,29 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4">
-        <v>201</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -859,25 +992,27 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
-        <v>201</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -897,25 +1032,29 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4">
-        <v>308</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -935,25 +1074,27 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
-        <v>308</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -973,25 +1114,21 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6">
-        <v>404</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1011,17 +1148,21 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1041,17 +1182,21 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1071,13 +1216,14 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1098,15 +1244,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1128,21 +1274,19 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1164,23 +1308,21 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1202,23 +1344,23 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1240,23 +1382,23 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
-        <v>308</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1278,23 +1420,21 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4">
-        <v>308</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1316,17 +1456,21 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1348,23 +1492,23 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9">
-        <v>305</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1386,21 +1530,21 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>7</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1422,23 +1566,15 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4">
-        <v>201</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1460,23 +1596,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="4">
-        <v>201</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1498,13 +1626,13 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1526,15 +1654,15 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1556,21 +1684,19 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1592,23 +1718,23 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="4">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1630,23 +1756,23 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1668,23 +1794,23 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="4">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="4">
-        <v>405</v>
-      </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1706,23 +1832,23 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="4">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4">
-        <v>405</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1744,23 +1870,23 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="4">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>5</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="4">
-        <v>404</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="E32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1782,23 +1908,23 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="4">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="4">
-        <v>404</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="E33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1820,23 +1946,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="4">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>7</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="1"/>
+      <c r="B34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1858,23 +1982,21 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>8</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="1"/>
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1896,15 +2018,15 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="4">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>9</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1926,13 +2048,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1954,15 +2076,15 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="1"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1984,21 +2106,19 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2020,23 +2140,23 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>1</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="4">
-        <v>204</v>
-      </c>
-      <c r="F40" s="1"/>
+      <c r="B40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2058,23 +2178,23 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>2</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="4">
-        <v>204</v>
-      </c>
-      <c r="F41" s="1"/>
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2096,23 +2216,23 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>3</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="4">
-        <v>203</v>
-      </c>
-      <c r="F42" s="1"/>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2134,23 +2254,23 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>4</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="4">
-        <v>203</v>
-      </c>
-      <c r="F43" s="1"/>
+      <c r="B43" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2172,21 +2292,23 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>5</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="1"/>
+      <c r="B44" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2208,23 +2330,23 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>6</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="4">
-        <v>407</v>
-      </c>
-      <c r="F45" s="1"/>
+      <c r="B45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2246,23 +2368,21 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>7</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="4">
-        <v>405</v>
-      </c>
-      <c r="F46" s="1"/>
+      <c r="B46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2284,19 +2404,15 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>8</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2318,15 +2434,15 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>9</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="1"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2348,13 +2464,13 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2376,15 +2492,15 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="1"/>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2406,21 +2522,21 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="E51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2442,23 +2558,23 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="4">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>1</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="4">
-        <v>208</v>
-      </c>
-      <c r="F52" s="1"/>
+      <c r="B52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2480,21 +2596,21 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="4">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>2</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
-        <v>305</v>
-      </c>
-      <c r="F53" s="1"/>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2516,23 +2632,23 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="4">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>3</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="4">
-        <v>307</v>
-      </c>
-      <c r="F54" s="1"/>
+      <c r="B54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2554,21 +2670,21 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="4">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>4</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <v>305</v>
-      </c>
-      <c r="F55" s="1"/>
+      <c r="B55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2590,23 +2706,23 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="4">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>5</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="4">
-        <v>308</v>
-      </c>
-      <c r="F56" s="1"/>
+      <c r="B56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2628,23 +2744,21 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="4">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="4">
-        <v>308</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="B57" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2666,19 +2780,15 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="4">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>7</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="1"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2700,15 +2810,15 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="4">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>8</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="1"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2730,15 +2840,15 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="4">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>9</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="1"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2760,13 +2870,13 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2788,13 +2898,13 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="2"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2816,13 +2926,13 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2844,13 +2954,13 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2872,13 +2982,13 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="2"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2900,13 +3010,13 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="2"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2928,13 +3038,13 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2956,13 +3066,13 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="2"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2984,13 +3094,13 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="2"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3012,13 +3122,13 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="2"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3040,13 +3150,13 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="2"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3068,13 +3178,13 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3096,13 +3206,13 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3124,13 +3234,13 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3152,13 +3262,13 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3180,13 +3290,13 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3208,13 +3318,13 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3236,13 +3346,13 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3264,13 +3374,13 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="2"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3292,13 +3402,13 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="2"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3320,13 +3430,13 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="2"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3348,13 +3458,13 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3376,13 +3486,13 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3404,13 +3514,13 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3432,13 +3542,13 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -3460,13 +3570,13 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -3488,13 +3598,13 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="2"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -3516,13 +3626,13 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -3544,13 +3654,13 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="2"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3572,13 +3682,13 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="2"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3600,13 +3710,13 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="2"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3628,13 +3738,13 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="2"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3656,13 +3766,13 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="2"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3684,13 +3794,13 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="2"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3712,13 +3822,13 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="2"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3740,13 +3850,13 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="2"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -3768,13 +3878,13 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3796,13 +3906,13 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="2"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -3824,13 +3934,13 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="F99" s="2"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3852,13 +3962,13 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="2"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -3880,13 +3990,13 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="2"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -3908,13 +4018,13 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="2"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -3936,13 +4046,13 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="2"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -3964,13 +4074,13 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -3992,13 +4102,13 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4020,13 +4130,13 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4048,13 +4158,13 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4076,13 +4186,13 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -4104,13 +4214,13 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -4132,13 +4242,13 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="2"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4160,13 +4270,13 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="2"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4188,13 +4298,13 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="2"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4216,13 +4326,13 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="2"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -4244,13 +4354,13 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="2"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -4272,13 +4382,13 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="2"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4300,13 +4410,13 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="2"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4328,13 +4438,13 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4356,13 +4466,13 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="2"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4384,13 +4494,13 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="2"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4412,13 +4522,13 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="2"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4440,13 +4550,13 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="2"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4468,13 +4578,13 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="2"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4496,13 +4606,13 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="2"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4524,13 +4634,13 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="2"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4552,13 +4662,13 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="2"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4580,13 +4690,13 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="2"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4608,13 +4718,13 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="2"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4636,13 +4746,13 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="2"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -4664,13 +4774,13 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="2"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -4692,13 +4802,13 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="2"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -4720,13 +4830,13 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="2"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -4748,13 +4858,13 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="2"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -4776,13 +4886,13 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="2"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -4804,13 +4914,13 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -4832,13 +4942,13 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="2"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -4860,13 +4970,13 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="2"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -4888,13 +4998,13 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="2"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -4916,13 +5026,13 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="2"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -4944,13 +5054,13 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="F139" s="2"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -4972,13 +5082,13 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="F140" s="2"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -5000,13 +5110,13 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="2"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -5028,13 +5138,13 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="2"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -5056,13 +5166,13 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="F143" s="2"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -5084,13 +5194,13 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="2"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -5112,13 +5222,13 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="F145" s="2"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -5140,13 +5250,13 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="2"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -5168,13 +5278,13 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="2"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5196,13 +5306,13 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="2"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5224,13 +5334,13 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="2"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5252,13 +5362,13 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="2"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5280,13 +5390,13 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="2"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5308,13 +5418,13 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="2"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5336,13 +5446,13 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="2"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5364,13 +5474,13 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="F154" s="2"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5392,13 +5502,13 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="F155" s="2"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5420,13 +5530,13 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="2"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5448,13 +5558,13 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="2"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5476,13 +5586,13 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="2"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -5504,13 +5614,13 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="2"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -5532,13 +5642,13 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="2"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -5560,13 +5670,13 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="2"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -5588,13 +5698,13 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="2"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -5616,13 +5726,13 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="2"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -5644,13 +5754,13 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="F164" s="2"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -5672,13 +5782,13 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="F165" s="2"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -5700,13 +5810,13 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="F166" s="2"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -5728,13 +5838,13 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="2"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -5756,13 +5866,13 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="F168" s="2"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -5784,13 +5894,13 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="2"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -5812,13 +5922,13 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="F170" s="2"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -5840,13 +5950,13 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="F171" s="2"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -5868,13 +5978,13 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="F172" s="2"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -5896,13 +6006,13 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="F173" s="2"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -5924,13 +6034,13 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="2"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -5952,13 +6062,13 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="F175" s="2"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -5980,13 +6090,13 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="2"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6008,13 +6118,13 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="F177" s="2"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6036,13 +6146,13 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="F178" s="2"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6064,13 +6174,13 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="F179" s="2"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6092,13 +6202,13 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="2"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6120,13 +6230,13 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="F181" s="2"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6148,13 +6258,13 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="F182" s="2"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6176,13 +6286,13 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="F183" s="2"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6204,13 +6314,13 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="F184" s="2"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6232,13 +6342,13 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="F185" s="2"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6260,13 +6370,13 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="F186" s="2"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6288,13 +6398,13 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="F187" s="2"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -6316,13 +6426,13 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="F188" s="2"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -6344,13 +6454,13 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="F189" s="2"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -6372,13 +6482,13 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="F190" s="2"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -6400,13 +6510,13 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="F191" s="2"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -6428,13 +6538,13 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="F192" s="2"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -6456,13 +6566,13 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="F193" s="2"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -6484,13 +6594,13 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="F194" s="2"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -6512,13 +6622,13 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="F195" s="2"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -6540,13 +6650,13 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="F196" s="2"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -6568,13 +6678,13 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="F197" s="2"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -6596,13 +6706,13 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="F198" s="2"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -6624,13 +6734,13 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="F199" s="2"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -6652,13 +6762,13 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="F200" s="2"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -6680,13 +6790,13 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="F201" s="2"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -6708,13 +6818,13 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="F202" s="2"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -6736,13 +6846,13 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
+      <c r="F203" s="2"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -6764,13 +6874,13 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
+      <c r="F204" s="2"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -6792,13 +6902,13 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="F205" s="2"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -6820,13 +6930,13 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="F206" s="2"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -6848,13 +6958,13 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
+      <c r="F207" s="2"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -6876,13 +6986,13 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
+      <c r="F208" s="2"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -6904,13 +7014,13 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="F209" s="2"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -6932,13 +7042,13 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
+      <c r="F210" s="2"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -6960,13 +7070,13 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="F211" s="2"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -6988,13 +7098,13 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="F212" s="2"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7016,13 +7126,13 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+      <c r="F213" s="2"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7044,13 +7154,13 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
+      <c r="F214" s="2"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7072,13 +7182,13 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+      <c r="F215" s="2"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7100,13 +7210,13 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
+      <c r="F216" s="2"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -7128,13 +7238,13 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="F217" s="2"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -7156,13 +7266,13 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
+      <c r="F218" s="2"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -7184,13 +7294,13 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
+      <c r="F219" s="2"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -7212,13 +7322,13 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
+      <c r="F220" s="2"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -7240,13 +7350,13 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
+      <c r="F221" s="2"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -7268,13 +7378,13 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
+      <c r="F222" s="2"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -7296,13 +7406,13 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="F223" s="2"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -7324,13 +7434,13 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="F224" s="2"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -7352,13 +7462,13 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
+      <c r="F225" s="2"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -7380,13 +7490,13 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="F226" s="2"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -7408,13 +7518,13 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="F227" s="2"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -7436,13 +7546,13 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+      <c r="F228" s="2"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -7464,13 +7574,13 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+      <c r="F229" s="2"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -7492,13 +7602,13 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
+      <c r="F230" s="2"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -7520,13 +7630,13 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
+      <c r="F231" s="2"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -7548,13 +7658,13 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="F232" s="2"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -7576,13 +7686,13 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+      <c r="F233" s="2"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -7604,13 +7714,13 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="F234" s="2"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -7632,13 +7742,13 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
+      <c r="F235" s="2"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -7660,13 +7770,13 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
+      <c r="F236" s="2"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -7688,13 +7798,13 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="F237" s="2"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -7716,13 +7826,13 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="F238" s="2"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -7744,13 +7854,13 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
+      <c r="F239" s="2"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -7772,13 +7882,13 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
+      <c r="F240" s="2"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -7800,13 +7910,13 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
+      <c r="F241" s="2"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -7828,13 +7938,13 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
+      <c r="F242" s="2"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -7856,13 +7966,13 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="F243" s="2"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -7884,13 +7994,13 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+      <c r="F244" s="2"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -7912,13 +8022,13 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
+      <c r="F245" s="2"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -7940,13 +8050,13 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
+      <c r="F246" s="2"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -7968,13 +8078,13 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
+      <c r="F247" s="2"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -7996,13 +8106,13 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
+      <c r="F248" s="2"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -8024,13 +8134,13 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
+      <c r="F249" s="2"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -8052,13 +8162,13 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
+      <c r="F250" s="2"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -8080,13 +8190,13 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
+      <c r="F251" s="2"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -8108,13 +8218,13 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="F252" s="2"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -8136,13 +8246,13 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="F253" s="2"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -8164,13 +8274,13 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="F254" s="2"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -8192,13 +8302,13 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
+      <c r="F255" s="2"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -8220,13 +8330,13 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="F256" s="2"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -8248,13 +8358,13 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+      <c r="F257" s="2"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -8276,13 +8386,13 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+      <c r="F258" s="2"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -8304,13 +8414,13 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="F259" s="2"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -8332,13 +8442,13 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
+      <c r="F260" s="2"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -8360,756 +8470,764 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D44:E44"/>
+  <mergeCells count="16">
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="A50:E50"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/botCode/workWithExcelFile/excelDatabase/GUESTS/ГОСТЬ.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/GUESTS/ГОСТЬ.xlsx
@@ -1,38 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5023AE0AD6B16ED78E616D20E21565287E0B06B9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BA83D2A-3D70-459F-ABF7-58F415C43B5F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="М-10-2, А-10-2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Бадляев Никита Васильевич</t>
-  </si>
-  <si>
-    <t>Штойк 10.4</t>
   </si>
   <si>
     <t>Предмет</t>
@@ -44,9 +48,6 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Булгаков Иван Сергеевич</t>
-  </si>
-  <si>
     <t>Урок для практических занятий (классрум на время)</t>
   </si>
   <si>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>Геометрия</t>
-  </si>
-  <si>
-    <t>Воробьев Алексей Денисович</t>
   </si>
   <si>
     <t>Английский</t>
@@ -68,28 +66,13 @@
     <t>Zoom</t>
   </si>
   <si>
-    <t>Мачнев Егор Витальевич</t>
-  </si>
-  <si>
-    <t>Напольских 10.5</t>
-  </si>
-  <si>
     <t>И-10-2</t>
   </si>
   <si>
     <t>Козодой</t>
   </si>
   <si>
-    <t>Назаров Владимир Игоревич</t>
-  </si>
-  <si>
     <t>Английский язык</t>
-  </si>
-  <si>
-    <t>Платонов Илья Александрович</t>
-  </si>
-  <si>
-    <t>Будникова 10.3</t>
   </si>
   <si>
     <t>физика</t>
@@ -98,22 +81,7 @@
     <t>Щербина</t>
   </si>
   <si>
-    <t>Погорелый Константин Олегович</t>
-  </si>
-  <si>
     <t>Физика</t>
-  </si>
-  <si>
-    <t>Романов Григорий Романович</t>
-  </si>
-  <si>
-    <t>Тихонова Елизавета Кирилловна</t>
-  </si>
-  <si>
-    <t>Шимохин Алексей Иванович</t>
-  </si>
-  <si>
-    <t>Ямпольский Константин Дмитриевич</t>
   </si>
   <si>
     <t>Среда</t>
@@ -191,8 +159,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,19 +384,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,15 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +419,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,29 +716,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="15" customWidth="1"/>
     <col min="7" max="7" width="31.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="3" customWidth="1"/>
     <col min="9" max="26" width="7.625" style="3" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -798,21 +766,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -832,25 +796,21 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:26">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -870,27 +830,23 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:26">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -910,27 +866,23 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:26">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -950,29 +902,25 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:26">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -992,27 +940,23 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:26">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1032,29 +976,25 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:26">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1074,27 +1014,23 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:26">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1114,21 +1050,17 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:26">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1148,21 +1080,17 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:26">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1182,21 +1110,17 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:26">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1216,7 +1140,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1244,14 +1168,14 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+    <row r="14" spans="1:26">
+      <c r="A14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1274,18 +1198,18 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:26">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1308,20 +1232,20 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:26">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>31</v>
+      <c r="B16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1344,21 +1268,21 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:26">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>13</v>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -1382,21 +1306,21 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:26">
+      <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -1420,20 +1344,20 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:26">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>25</v>
+      <c r="B19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1456,20 +1380,20 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:26">
+      <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>25</v>
+      <c r="B20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1492,21 +1416,21 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>13</v>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -1530,19 +1454,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="12" t="s">
-        <v>13</v>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -1566,14 +1490,14 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1596,14 +1520,14 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="5">
         <v>9</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1626,7 +1550,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1654,14 +1578,14 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1684,18 +1608,18 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1718,21 +1642,21 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>13</v>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1756,21 +1680,21 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="5">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>13</v>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1794,21 +1718,21 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A30" s="5">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1832,21 +1756,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1870,21 +1794,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A32" s="5">
         <v>5</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>13</v>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -1908,21 +1832,21 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="5">
         <v>6</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>13</v>
+      <c r="B33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -1946,20 +1870,20 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="5">
         <v>7</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>37</v>
+      <c r="B34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1982,20 +1906,20 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="5">
         <v>8</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>37</v>
+      <c r="B35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2018,14 +1942,14 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="5">
         <v>9</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2048,7 +1972,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2076,14 +2000,14 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2106,18 +2030,18 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2140,21 +2064,21 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="5">
         <v>1</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>13</v>
+      <c r="B40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
@@ -2178,21 +2102,21 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="5">
         <v>2</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>13</v>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -2216,21 +2140,21 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A42" s="5">
         <v>3</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>13</v>
+      <c r="B42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -2254,21 +2178,21 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A43" s="5">
         <v>4</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>13</v>
+      <c r="B43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -2292,21 +2216,21 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="5">
         <v>5</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>13</v>
+      <c r="B44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -2330,21 +2254,21 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="5">
         <v>6</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>13</v>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -2368,20 +2292,20 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="5">
         <v>7</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>31</v>
+      <c r="B46" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2404,14 +2328,14 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A47" s="5">
         <v>8</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2434,14 +2358,14 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="5">
         <v>9</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2464,7 +2388,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2492,14 +2416,14 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2522,19 +2446,19 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>13</v>
+      <c r="E51" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -2558,21 +2482,21 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A52" s="5">
         <v>1</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>13</v>
+      <c r="B52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -2596,19 +2520,19 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A53" s="5">
         <v>2</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="12" t="s">
-        <v>13</v>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1"/>
@@ -2632,21 +2556,21 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A54" s="5">
         <v>3</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>13</v>
+      <c r="B54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -2670,20 +2594,20 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A55" s="5">
         <v>4</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>31</v>
+      <c r="B55" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2706,21 +2630,21 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A56" s="5">
         <v>5</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="B56" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -2744,20 +2668,20 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A57" s="5">
         <v>6</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>53</v>
+      <c r="B57" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2780,14 +2704,14 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A58" s="5">
         <v>7</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2810,14 +2734,14 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A59" s="5">
         <v>8</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2840,14 +2764,14 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A60" s="5">
         <v>9</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2870,7 +2794,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2898,7 +2822,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2926,7 +2850,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2954,7 +2878,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2982,7 +2906,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3010,7 +2934,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3038,7 +2962,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3066,7 +2990,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3094,7 +3018,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3122,7 +3046,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3150,7 +3074,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3178,7 +3102,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3206,7 +3130,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3234,7 +3158,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3262,7 +3186,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3290,7 +3214,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3318,7 +3242,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3346,7 +3270,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3374,7 +3298,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3402,7 +3326,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3430,7 +3354,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3458,7 +3382,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3486,7 +3410,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3514,7 +3438,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3542,7 +3466,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3570,7 +3494,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3598,7 +3522,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3626,7 +3550,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3654,7 +3578,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3682,7 +3606,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3710,7 +3634,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3738,7 +3662,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3766,7 +3690,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3794,7 +3718,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3822,7 +3746,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3850,7 +3774,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3878,7 +3802,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3906,7 +3830,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3934,7 +3858,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3962,7 +3886,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3990,7 +3914,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4018,7 +3942,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4046,7 +3970,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4074,7 +3998,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4102,7 +4026,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4130,7 +4054,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4158,7 +4082,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4186,7 +4110,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4214,7 +4138,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4242,7 +4166,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4270,7 +4194,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4298,7 +4222,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4326,7 +4250,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4354,7 +4278,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4382,7 +4306,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4410,7 +4334,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4438,7 +4362,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4466,7 +4390,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4494,7 +4418,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4522,7 +4446,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4550,7 +4474,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4578,7 +4502,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4606,7 +4530,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4634,7 +4558,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4662,7 +4586,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4690,7 +4614,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4718,7 +4642,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4746,7 +4670,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4774,7 +4698,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4802,7 +4726,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4830,7 +4754,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4858,7 +4782,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4886,7 +4810,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4914,7 +4838,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4942,7 +4866,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4970,7 +4894,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4998,7 +4922,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5026,7 +4950,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5054,7 +4978,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5082,7 +5006,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5110,7 +5034,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5138,7 +5062,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5166,7 +5090,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5194,7 +5118,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5222,7 +5146,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5250,7 +5174,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5278,7 +5202,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5306,7 +5230,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5334,7 +5258,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5362,7 +5286,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5390,7 +5314,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5418,7 +5342,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5446,7 +5370,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5474,7 +5398,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5502,7 +5426,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5530,7 +5454,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5558,7 +5482,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5586,7 +5510,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5614,7 +5538,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5642,7 +5566,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5670,7 +5594,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5698,7 +5622,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5726,7 +5650,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5754,7 +5678,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5782,7 +5706,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5810,7 +5734,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5838,7 +5762,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5866,7 +5790,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5894,7 +5818,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5922,7 +5846,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5950,7 +5874,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5978,7 +5902,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6006,7 +5930,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6034,7 +5958,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6062,7 +5986,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6090,7 +6014,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6118,7 +6042,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6146,7 +6070,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6174,7 +6098,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6202,7 +6126,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6230,7 +6154,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6258,7 +6182,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6286,7 +6210,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6314,7 +6238,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6342,7 +6266,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6370,7 +6294,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6398,7 +6322,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6426,7 +6350,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6454,7 +6378,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6482,7 +6406,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6510,7 +6434,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6538,7 +6462,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6566,7 +6490,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6594,7 +6518,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6622,7 +6546,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6650,7 +6574,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6678,7 +6602,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6706,7 +6630,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6734,7 +6658,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6762,7 +6686,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6790,7 +6714,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6818,7 +6742,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6846,7 +6770,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6874,7 +6798,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6902,7 +6826,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6930,7 +6854,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6958,7 +6882,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6986,7 +6910,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7014,7 +6938,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7042,7 +6966,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7070,7 +6994,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7098,7 +7022,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7126,7 +7050,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7154,7 +7078,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7182,7 +7106,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7210,7 +7134,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7238,7 +7162,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7266,7 +7190,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7294,7 +7218,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7322,7 +7246,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7350,7 +7274,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7378,7 +7302,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7406,7 +7330,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7434,7 +7358,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7462,7 +7386,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7490,7 +7414,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7518,7 +7442,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7546,7 +7470,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7574,7 +7498,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7602,7 +7526,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7630,7 +7554,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7658,7 +7582,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7686,7 +7610,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7714,7 +7638,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7742,7 +7666,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7770,7 +7694,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7798,7 +7722,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7826,7 +7750,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7854,7 +7778,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7882,7 +7806,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7910,7 +7834,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7938,7 +7862,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7966,7 +7890,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7994,7 +7918,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8022,7 +7946,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8050,7 +7974,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8078,7 +8002,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8106,7 +8030,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8134,7 +8058,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8162,7 +8086,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8190,7 +8114,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8218,7 +8142,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8246,7 +8170,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8274,7 +8198,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8302,7 +8226,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8330,7 +8254,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8358,7 +8282,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8386,7 +8310,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8414,7 +8338,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8442,7 +8366,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8470,746 +8394,746 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="262" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="263" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="264" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="265" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="266" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B46:D46"/>
@@ -9222,12 +9146,12 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/botCode/workWithExcelFile/excelDatabase/GUESTS/ГОСТЬ.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/GUESTS/ГОСТЬ.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23602"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5023AE0AD6B16ED78E616D20E21565287E0B06B9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BA83D2A-3D70-459F-ABF7-58F415C43B5F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_5023AE0AD6B16ED78E616D20E21565287E0B06B9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B429C4B-085F-4652-82C5-6F755F27E9CD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="М-10-2, А-10-2" sheetId="1" r:id="rId1"/>
+    <sheet name="ГОСТЬ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
+  <si>
+    <t>DEMO</t>
+  </si>
   <si>
     <t>Понедельник</t>
   </si>
@@ -721,7 +724,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -739,7 +742,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -768,14 +773,14 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -799,13 +804,13 @@
     <row r="3" spans="1:26">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
@@ -835,15 +840,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
@@ -871,14 +876,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
@@ -907,16 +912,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
@@ -945,15 +950,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
@@ -981,16 +986,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
@@ -1019,15 +1024,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
@@ -1147,7 +1152,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1170,7 +1175,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1201,13 +1206,13 @@
     <row r="15" spans="1:26">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
@@ -1237,15 +1242,15 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1273,16 +1278,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -1311,16 +1316,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -1349,15 +1354,15 @@
         <v>4</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1385,15 +1390,15 @@
         <v>5</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1421,16 +1426,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -1459,14 +1464,14 @@
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -1580,7 +1585,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1611,13 +1616,13 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
@@ -1647,16 +1652,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1685,16 +1690,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1723,16 +1728,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1761,16 +1766,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1799,16 +1804,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -1837,16 +1842,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -1875,15 +1880,15 @@
         <v>7</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1911,15 +1916,15 @@
         <v>8</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2002,7 +2007,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2033,13 +2038,13 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
@@ -2069,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
@@ -2107,16 +2112,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -2145,16 +2150,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -2183,16 +2188,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -2221,16 +2226,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -2259,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -2297,15 +2302,15 @@
         <v>7</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2418,7 +2423,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2449,16 +2454,16 @@
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -2487,16 +2492,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -2525,14 +2530,14 @@
         <v>2</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1"/>
@@ -2561,16 +2566,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -2599,15 +2604,15 @@
         <v>4</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2635,16 +2640,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -2673,15 +2678,15 @@
         <v>6</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
